--- a/1спринт/2часть/Филипчик_Таблицы_часть2.xlsx
+++ b/1спринт/2часть/Филипчик_Таблицы_часть2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\1спринт\2часть\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D08EDA-92EA-4475-8FDF-7E51D0826982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87D17E-BC0A-44E1-934F-10C26D7FB4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,122 +603,122 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1120,2875 +1120,2875 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:BL139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="D53" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="3"/>
-    <col min="4" max="4" width="34.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="37.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="36.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="3"/>
-    <col min="13" max="14" width="29.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="36.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="26" style="3" customWidth="1"/>
-    <col min="17" max="17" width="35.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="35.44140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="31.44140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="36" style="3" customWidth="1"/>
-    <col min="21" max="64" width="17.5546875" style="3"/>
+    <col min="1" max="1" width="46.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="1"/>
+    <col min="4" max="4" width="34.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="1"/>
+    <col min="13" max="14" width="29.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="26" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="35.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="31.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="36" style="1" customWidth="1"/>
+    <col min="21" max="64" width="17.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="68.400000000000006" x14ac:dyDescent="0.4">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="61.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>1.4</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>1.5</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>0.89</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>2.6</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>2.6</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="8"/>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>1.4</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>2.9</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>50</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>1.4</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>1.5</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>1.9</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>3.8</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>3</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>1.5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>2.4</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>1.2</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>3.4</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>42</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>1.5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>3.7</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>3.7</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>1.2</v>
       </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
         <v>1.7</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>1.7</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>3.2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>3.9</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>4.7</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>2.7</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>1.7</v>
       </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>1.4</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>2.4</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>3.5</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>1.4</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>1.3</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="40.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="73.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="1" t="s">
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="16" t="s">
+      <c r="L17" s="16"/>
+      <c r="M17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="Q17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="R17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="S17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T17" s="17" t="s">
+      <c r="T17" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <f t="shared" ref="E18:K19" si="0">11*E7*60/50</f>
         <v>0</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <f t="shared" si="0"/>
         <v>18.479999999999997</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="18">
         <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="18">
         <f t="shared" si="0"/>
         <v>11.748000000000001</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="18">
         <f t="shared" si="0"/>
         <v>34.32</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="18">
         <f t="shared" si="0"/>
         <v>34.32</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="18">
         <f t="shared" si="0"/>
         <v>34.32</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19" t="s">
+      <c r="L18" s="16"/>
+      <c r="M18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="18">
         <f t="shared" ref="N18:T24" si="1">E7*60/50</f>
         <v>0</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="18">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="18">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="18">
         <f t="shared" si="1"/>
         <v>1.0680000000000001</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="18">
         <f t="shared" si="1"/>
         <v>3.12</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="18">
         <f t="shared" si="1"/>
         <v>3.12</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="18">
         <f t="shared" si="1"/>
         <v>3.12</v>
       </c>
     </row>
     <row r="19" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <f t="shared" si="0"/>
         <v>18.479999999999997</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="20">
         <f t="shared" si="0"/>
         <v>38.28</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <f t="shared" si="0"/>
         <v>30.359999999999996</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="20">
         <f t="shared" si="0"/>
         <v>30.359999999999996</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <f t="shared" si="0"/>
         <v>30.359999999999996</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="20">
         <f t="shared" si="0"/>
         <v>30.359999999999996</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="21" t="s">
+      <c r="L19" s="16"/>
+      <c r="M19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="20">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="O19" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="22">
+      <c r="O19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="20">
         <f t="shared" si="1"/>
         <v>3.48</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="20">
         <f t="shared" si="1"/>
         <v>2.76</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="20">
         <f t="shared" si="1"/>
         <v>2.76</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="20">
         <f t="shared" si="1"/>
         <v>2.76</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="20">
         <f t="shared" si="1"/>
         <v>2.76</v>
       </c>
     </row>
     <row r="20" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <f t="shared" ref="E20:J24" si="2">11*E9*60/50</f>
         <v>18.479999999999997</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <f t="shared" si="2"/>
         <v>19.8</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="22">
         <f t="shared" si="2"/>
         <v>25.08</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="22">
         <f t="shared" si="2"/>
         <v>50.16</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="22">
         <f t="shared" si="2"/>
         <v>39.6</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="22">
         <f>11*K8*60/50</f>
         <v>30.359999999999996</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="23" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="22">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="22">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="P20" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="24">
+      <c r="P20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="22">
         <f t="shared" si="1"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="22">
         <f t="shared" si="1"/>
         <v>4.5599999999999996</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="22">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="T20" s="24">
+      <c r="T20" s="22">
         <f t="shared" si="1"/>
         <v>3.96</v>
       </c>
     </row>
     <row r="21" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <f t="shared" si="2"/>
         <v>19.8</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="24">
         <f t="shared" si="2"/>
         <v>39.6</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="24">
         <f t="shared" si="2"/>
         <v>31.68</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="24">
         <f t="shared" si="2"/>
         <v>15.84</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="24">
         <f t="shared" si="2"/>
         <v>44.88</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="24">
         <f>11*K10*60/50</f>
         <v>30.359999999999996</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="25" t="s">
+      <c r="L21" s="16"/>
+      <c r="M21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="24">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="24">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="24">
         <f t="shared" si="1"/>
         <v>2.88</v>
       </c>
-      <c r="Q21" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="26">
+      <c r="Q21" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="24">
         <f t="shared" si="1"/>
         <v>1.44</v>
       </c>
-      <c r="S21" s="26">
+      <c r="S21" s="24">
         <f t="shared" si="1"/>
         <v>4.08</v>
       </c>
-      <c r="T21" s="26">
+      <c r="T21" s="24">
         <f t="shared" si="1"/>
         <v>2.76</v>
       </c>
     </row>
     <row r="22" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <f t="shared" si="2"/>
         <v>19.8</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="18">
         <f t="shared" si="2"/>
         <v>48.84</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <f t="shared" si="2"/>
         <v>48.84</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="18">
         <f t="shared" si="2"/>
         <v>15.84</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="18">
         <f t="shared" si="2"/>
         <v>22.44</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="18">
         <f>11*K11*60/50</f>
         <v>22.44</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19" t="s">
+      <c r="L22" s="16"/>
+      <c r="M22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="18">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="18">
         <f t="shared" si="1"/>
         <v>4.4400000000000004</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P22" s="18">
         <f t="shared" si="1"/>
         <v>4.4400000000000004</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="18">
         <f t="shared" si="1"/>
         <v>1.44</v>
       </c>
-      <c r="R22" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="20">
+      <c r="R22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="18">
         <f t="shared" si="1"/>
         <v>2.04</v>
       </c>
-      <c r="T22" s="20">
+      <c r="T22" s="18">
         <f t="shared" si="1"/>
         <v>2.04</v>
       </c>
     </row>
     <row r="23" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="26">
         <f t="shared" si="2"/>
         <v>42.24</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="26">
         <f t="shared" si="2"/>
         <v>51.48</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="26">
         <f t="shared" si="2"/>
         <v>62.04</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="26">
         <f t="shared" si="2"/>
         <v>35.640000000000008</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="26">
         <f t="shared" si="2"/>
         <v>22.44</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="26">
         <f>11*K12*60/50</f>
         <v>29.040000000000006</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="27" t="s">
+      <c r="L23" s="16"/>
+      <c r="M23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="26">
         <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="26">
         <f t="shared" si="1"/>
         <v>4.68</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="26">
         <f t="shared" si="1"/>
         <v>5.64</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="26">
         <f t="shared" si="1"/>
         <v>3.24</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="26">
         <f t="shared" si="1"/>
         <v>2.04</v>
       </c>
-      <c r="S23" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="28">
+      <c r="S23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="26">
         <f t="shared" si="1"/>
         <v>2.64</v>
       </c>
     </row>
     <row r="24" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <f t="shared" si="2"/>
         <v>18.479999999999997</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="28">
         <f t="shared" si="2"/>
         <v>31.68</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="28">
         <f t="shared" si="2"/>
         <v>46.2</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="28">
         <f t="shared" si="2"/>
         <v>30.359999999999996</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="28">
         <f t="shared" si="2"/>
         <v>18.479999999999997</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="28">
         <f t="shared" si="2"/>
         <v>17.16</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="28">
         <f>11*K13*60/50</f>
         <v>0</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="29" t="s">
+      <c r="L24" s="16"/>
+      <c r="M24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="28">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="28">
         <f t="shared" si="1"/>
         <v>2.88</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="28">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="28">
         <f t="shared" si="1"/>
         <v>2.76</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="28">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
-      <c r="S24" s="30">
+      <c r="S24" s="28">
         <f t="shared" si="1"/>
         <v>1.56</v>
       </c>
-      <c r="T24" s="30">
+      <c r="T24" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D25" s="31"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
     </row>
     <row r="26" spans="4:20" ht="25.2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="D26" s="31"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="4:20" ht="25.2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="31"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D28" s="31"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="4:20" ht="65.7" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="D29" s="31"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="1" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="1" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L30" s="18"/>
-      <c r="M30" s="16" t="s">
+      <c r="L30" s="16"/>
+      <c r="M30" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N30" s="17" t="s">
+      <c r="N30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O30" s="17" t="s">
+      <c r="O30" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P30" s="17" t="s">
+      <c r="P30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q30" s="17" t="s">
+      <c r="Q30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R30" s="17" t="s">
+      <c r="R30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S30" s="17" t="s">
+      <c r="S30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="T30" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="32">
         <f t="shared" ref="E31:K37" si="3">11*60*E7/35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="32">
         <f t="shared" si="3"/>
         <v>26.399999999999995</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="32">
         <f t="shared" si="3"/>
         <v>28.285714285714285</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="32">
         <f t="shared" si="3"/>
         <v>16.782857142857143</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="32">
         <f t="shared" si="3"/>
         <v>49.028571428571432</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="32">
         <f t="shared" si="3"/>
         <v>49.028571428571432</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="32">
         <f t="shared" si="3"/>
         <v>49.028571428571432</v>
       </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19" t="s">
+      <c r="L31" s="16"/>
+      <c r="M31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N31" s="34">
+      <c r="N31" s="32">
         <f t="shared" ref="N31:T37" si="4">E7*60/35</f>
         <v>0</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="32">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="P31" s="34">
+      <c r="P31" s="32">
         <f t="shared" si="4"/>
         <v>2.5714285714285716</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="32">
         <f t="shared" si="4"/>
         <v>1.5257142857142856</v>
       </c>
-      <c r="R31" s="34">
+      <c r="R31" s="32">
         <f t="shared" si="4"/>
         <v>4.4571428571428573</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31" s="32">
         <f t="shared" si="4"/>
         <v>4.4571428571428573</v>
       </c>
-      <c r="T31" s="20">
+      <c r="T31" s="18">
         <f t="shared" si="4"/>
         <v>4.4571428571428573</v>
       </c>
     </row>
     <row r="32" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="33">
         <f t="shared" si="3"/>
         <v>26.399999999999995</v>
       </c>
-      <c r="F32" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="35">
+      <c r="F32" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
         <f t="shared" si="3"/>
         <v>54.685714285714283</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="33">
         <f t="shared" si="3"/>
         <v>43.371428571428567</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="33">
         <f t="shared" si="3"/>
         <v>43.371428571428567</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <f t="shared" si="3"/>
         <v>43.371428571428567</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="33">
         <f t="shared" si="3"/>
         <v>43.371428571428567</v>
       </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="21" t="s">
+      <c r="L32" s="16"/>
+      <c r="M32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="35">
+      <c r="N32" s="33">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="O32" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="35">
+      <c r="O32" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="33">
         <f t="shared" si="4"/>
         <v>4.9714285714285715</v>
       </c>
-      <c r="Q32" s="35">
+      <c r="Q32" s="33">
         <f t="shared" si="4"/>
         <v>3.9428571428571431</v>
       </c>
-      <c r="R32" s="35">
+      <c r="R32" s="33">
         <f t="shared" si="4"/>
         <v>3.9428571428571431</v>
       </c>
-      <c r="S32" s="35">
+      <c r="S32" s="33">
         <f t="shared" si="4"/>
         <v>3.9428571428571431</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T32" s="20">
         <f t="shared" si="4"/>
         <v>3.9428571428571431</v>
       </c>
     </row>
     <row r="33" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="34">
         <f t="shared" si="3"/>
         <v>26.399999999999995</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="34">
         <f t="shared" si="3"/>
         <v>28.285714285714285</v>
       </c>
-      <c r="G33" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="36">
+      <c r="G33" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="34">
         <f t="shared" si="3"/>
         <v>35.828571428571429</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="34">
         <f t="shared" si="3"/>
         <v>71.657142857142858</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="34">
         <f t="shared" si="3"/>
         <v>56.571428571428569</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="34">
         <f t="shared" si="3"/>
         <v>62.228571428571428</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="23" t="s">
+      <c r="L33" s="16"/>
+      <c r="M33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="34">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="34">
         <f t="shared" si="4"/>
         <v>2.5714285714285716</v>
       </c>
-      <c r="P33" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="36">
+      <c r="P33" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="34">
         <f t="shared" si="4"/>
         <v>3.2571428571428571</v>
       </c>
-      <c r="R33" s="36">
+      <c r="R33" s="34">
         <f t="shared" si="4"/>
         <v>6.5142857142857142</v>
       </c>
-      <c r="S33" s="36">
+      <c r="S33" s="34">
         <f t="shared" si="4"/>
         <v>5.1428571428571432</v>
       </c>
-      <c r="T33" s="24">
+      <c r="T33" s="22">
         <f t="shared" si="4"/>
         <v>5.6571428571428575</v>
       </c>
     </row>
     <row r="34" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="35">
         <f t="shared" si="3"/>
         <v>28.285714285714285</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="35">
         <f t="shared" si="3"/>
         <v>56.571428571428569</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="35">
         <f t="shared" si="3"/>
         <v>45.25714285714286</v>
       </c>
-      <c r="H34" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="37">
+      <c r="H34" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="35">
         <f t="shared" si="3"/>
         <v>22.62857142857143</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="35">
         <f t="shared" si="3"/>
         <v>64.114285714285714</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="35">
         <f t="shared" si="3"/>
         <v>43.371428571428567</v>
       </c>
-      <c r="L34" s="18"/>
-      <c r="M34" s="25" t="s">
+      <c r="L34" s="16"/>
+      <c r="M34" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="37">
+      <c r="N34" s="35">
         <f t="shared" si="4"/>
         <v>2.5714285714285716</v>
       </c>
-      <c r="O34" s="37">
+      <c r="O34" s="35">
         <f t="shared" si="4"/>
         <v>5.1428571428571432</v>
       </c>
-      <c r="P34" s="37">
+      <c r="P34" s="35">
         <f t="shared" si="4"/>
         <v>4.1142857142857139</v>
       </c>
-      <c r="Q34" s="37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="37">
+      <c r="Q34" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="35">
         <f t="shared" si="4"/>
         <v>2.0571428571428569</v>
       </c>
-      <c r="S34" s="37">
+      <c r="S34" s="35">
         <f t="shared" si="4"/>
         <v>5.8285714285714283</v>
       </c>
-      <c r="T34" s="26">
+      <c r="T34" s="24">
         <f t="shared" si="4"/>
         <v>3.9428571428571431</v>
       </c>
     </row>
     <row r="35" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="32">
         <f t="shared" si="3"/>
         <v>28.285714285714285</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="32">
         <f t="shared" si="3"/>
         <v>69.771428571428572</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="32">
         <f t="shared" si="3"/>
         <v>69.771428571428572</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="32">
         <f t="shared" si="3"/>
         <v>22.62857142857143</v>
       </c>
-      <c r="I35" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="34">
+      <c r="I35" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="32">
         <f t="shared" si="3"/>
         <v>32.057142857142857</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="32">
         <f t="shared" si="3"/>
         <v>32.057142857142857</v>
       </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19" t="s">
+      <c r="L35" s="16"/>
+      <c r="M35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="34">
+      <c r="N35" s="32">
         <f t="shared" si="4"/>
         <v>2.5714285714285716</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="32">
         <f t="shared" si="4"/>
         <v>6.3428571428571425</v>
       </c>
-      <c r="P35" s="34">
+      <c r="P35" s="32">
         <f t="shared" si="4"/>
         <v>6.3428571428571425</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="32">
         <f t="shared" si="4"/>
         <v>2.0571428571428569</v>
       </c>
-      <c r="R35" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="34">
+      <c r="R35" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="32">
         <f t="shared" si="4"/>
         <v>2.9142857142857141</v>
       </c>
-      <c r="T35" s="20">
+      <c r="T35" s="18">
         <f t="shared" si="4"/>
         <v>2.9142857142857141</v>
       </c>
     </row>
     <row r="36" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="36">
         <f t="shared" si="3"/>
         <v>60.342857142857142</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="36">
         <f t="shared" si="3"/>
         <v>73.542857142857144</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="36">
         <f t="shared" si="3"/>
         <v>88.628571428571433</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="36">
         <f t="shared" si="3"/>
         <v>50.914285714285718</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="36">
         <f t="shared" si="3"/>
         <v>32.057142857142857</v>
       </c>
-      <c r="J36" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="38">
+      <c r="J36" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="36">
         <f t="shared" si="3"/>
         <v>41.485714285714295</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="27" t="s">
+      <c r="L36" s="16"/>
+      <c r="M36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="36">
         <f t="shared" si="4"/>
         <v>5.4857142857142858</v>
       </c>
-      <c r="O36" s="38">
+      <c r="O36" s="36">
         <f t="shared" si="4"/>
         <v>6.6857142857142859</v>
       </c>
-      <c r="P36" s="38">
+      <c r="P36" s="36">
         <f t="shared" si="4"/>
         <v>8.0571428571428569</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="Q36" s="36">
         <f t="shared" si="4"/>
         <v>4.628571428571429</v>
       </c>
-      <c r="R36" s="38">
+      <c r="R36" s="36">
         <f t="shared" si="4"/>
         <v>2.9142857142857141</v>
       </c>
-      <c r="S36" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="28">
+      <c r="S36" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="26">
         <f t="shared" si="4"/>
         <v>3.7714285714285714</v>
       </c>
     </row>
     <row r="37" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="37">
         <f t="shared" si="3"/>
         <v>26.399999999999995</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="37">
         <f t="shared" si="3"/>
         <v>45.25714285714286</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="37">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="37">
         <f t="shared" si="3"/>
         <v>43.371428571428567</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="37">
         <f t="shared" si="3"/>
         <v>26.399999999999995</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="37">
         <f t="shared" si="3"/>
         <v>24.514285714285716</v>
       </c>
-      <c r="K37" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="29" t="s">
+      <c r="K37" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N37" s="39">
+      <c r="N37" s="37">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="O37" s="39">
+      <c r="O37" s="37">
         <f t="shared" si="4"/>
         <v>4.1142857142857139</v>
       </c>
-      <c r="P37" s="39">
+      <c r="P37" s="37">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="Q37" s="39">
+      <c r="Q37" s="37">
         <f t="shared" si="4"/>
         <v>3.9428571428571431</v>
       </c>
-      <c r="R37" s="39">
+      <c r="R37" s="37">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="S37" s="39">
+      <c r="S37" s="37">
         <f t="shared" si="4"/>
         <v>2.2285714285714286</v>
       </c>
-      <c r="T37" s="30">
+      <c r="T37" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
     </row>
     <row r="39" spans="4:20" ht="25.2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="D39" s="31"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
     </row>
     <row r="40" spans="4:20" ht="25.2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="D40" s="31"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
     </row>
     <row r="41" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D41" s="31"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
     </row>
     <row r="42" spans="4:20" ht="95.7" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="D42" s="31"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="1" t="s">
+      <c r="D42" s="29"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="1" t="s">
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
     </row>
     <row r="43" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="I43" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="17" t="s">
+      <c r="K43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="18"/>
-      <c r="M43" s="16" t="s">
+      <c r="L43" s="16"/>
+      <c r="M43" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N43" s="17" t="s">
+      <c r="N43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O43" s="17" t="s">
+      <c r="O43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="17" t="s">
+      <c r="P43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="17" t="s">
+      <c r="Q43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="17" t="s">
+      <c r="R43" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S43" s="17" t="s">
+      <c r="S43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T43" s="17" t="s">
+      <c r="T43" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="32">
         <f t="shared" ref="E44:K50" si="5">11*60*E7/42</f>
         <v>0</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="32">
         <f t="shared" si="5"/>
         <v>21.999999999999996</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="32">
         <f t="shared" si="5"/>
         <v>23.571428571428573</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="32">
         <f t="shared" si="5"/>
         <v>13.985714285714286</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="32">
         <f t="shared" si="5"/>
         <v>40.857142857142854</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44" s="32">
         <f t="shared" si="5"/>
         <v>40.857142857142854</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="32">
         <f t="shared" si="5"/>
         <v>40.857142857142854</v>
       </c>
-      <c r="L44" s="18"/>
-      <c r="M44" s="19" t="s">
+      <c r="L44" s="16"/>
+      <c r="M44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="34">
+      <c r="N44" s="32">
         <f t="shared" ref="N44:T50" si="6">E7*60/42</f>
         <v>0</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="32">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P44" s="34">
+      <c r="P44" s="32">
         <f t="shared" si="6"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="Q44" s="34">
+      <c r="Q44" s="32">
         <f t="shared" si="6"/>
         <v>1.2714285714285714</v>
       </c>
-      <c r="R44" s="34">
+      <c r="R44" s="32">
         <f t="shared" si="6"/>
         <v>3.7142857142857144</v>
       </c>
-      <c r="S44" s="34">
+      <c r="S44" s="32">
         <f t="shared" si="6"/>
         <v>3.7142857142857144</v>
       </c>
-      <c r="T44" s="34">
+      <c r="T44" s="32">
         <f t="shared" si="6"/>
         <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="45" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="33">
         <f t="shared" si="5"/>
         <v>21.999999999999996</v>
       </c>
-      <c r="F45" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="35">
+      <c r="F45" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="33">
         <f t="shared" si="5"/>
         <v>45.571428571428569</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="33">
         <f t="shared" si="5"/>
         <v>36.142857142857139</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="33">
         <f t="shared" si="5"/>
         <v>36.142857142857139</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="33">
         <f t="shared" si="5"/>
         <v>36.142857142857139</v>
       </c>
-      <c r="K45" s="35">
+      <c r="K45" s="33">
         <f t="shared" si="5"/>
         <v>36.142857142857139</v>
       </c>
-      <c r="L45" s="18"/>
-      <c r="M45" s="21" t="s">
+      <c r="L45" s="16"/>
+      <c r="M45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N45" s="35">
+      <c r="N45" s="33">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O45" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="35">
+      <c r="O45" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="33">
         <f t="shared" si="6"/>
         <v>4.1428571428571432</v>
       </c>
-      <c r="Q45" s="35">
+      <c r="Q45" s="33">
         <f t="shared" si="6"/>
         <v>3.2857142857142856</v>
       </c>
-      <c r="R45" s="35">
+      <c r="R45" s="33">
         <f t="shared" si="6"/>
         <v>3.2857142857142856</v>
       </c>
-      <c r="S45" s="35">
+      <c r="S45" s="33">
         <f t="shared" si="6"/>
         <v>3.2857142857142856</v>
       </c>
-      <c r="T45" s="35">
+      <c r="T45" s="33">
         <f t="shared" si="6"/>
         <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="46" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="34">
         <f t="shared" si="5"/>
         <v>21.999999999999996</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="34">
         <f t="shared" si="5"/>
         <v>23.571428571428573</v>
       </c>
-      <c r="G46" s="36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="36">
+      <c r="G46" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="34">
         <f t="shared" si="5"/>
         <v>29.857142857142858</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="34">
         <f t="shared" si="5"/>
         <v>59.714285714285715</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="34">
         <f t="shared" si="5"/>
         <v>47.142857142857146</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="34">
         <f t="shared" si="5"/>
         <v>51.857142857142854</v>
       </c>
-      <c r="L46" s="18"/>
-      <c r="M46" s="23" t="s">
+      <c r="L46" s="16"/>
+      <c r="M46" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="36">
+      <c r="N46" s="34">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O46" s="36">
+      <c r="O46" s="34">
         <f t="shared" si="6"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="P46" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="36">
+      <c r="P46" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="34">
         <f t="shared" si="6"/>
         <v>2.7142857142857144</v>
       </c>
-      <c r="R46" s="36">
+      <c r="R46" s="34">
         <f t="shared" si="6"/>
         <v>5.4285714285714288</v>
       </c>
-      <c r="S46" s="36">
+      <c r="S46" s="34">
         <f t="shared" si="6"/>
         <v>4.2857142857142856</v>
       </c>
-      <c r="T46" s="36">
+      <c r="T46" s="34">
         <f t="shared" si="6"/>
         <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="47" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="35">
         <f t="shared" si="5"/>
         <v>23.571428571428573</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="35">
         <f t="shared" si="5"/>
         <v>47.142857142857146</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="35">
         <f t="shared" si="5"/>
         <v>37.714285714285715</v>
       </c>
-      <c r="H47" s="37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="37">
+      <c r="H47" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="35">
         <f t="shared" si="5"/>
         <v>18.857142857142858</v>
       </c>
-      <c r="J47" s="37">
+      <c r="J47" s="35">
         <f t="shared" si="5"/>
         <v>53.428571428571431</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="35">
         <f t="shared" si="5"/>
         <v>36.142857142857139</v>
       </c>
-      <c r="L47" s="18"/>
-      <c r="M47" s="25" t="s">
+      <c r="L47" s="16"/>
+      <c r="M47" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="37">
+      <c r="N47" s="35">
         <f t="shared" si="6"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="O47" s="37">
+      <c r="O47" s="35">
         <f t="shared" si="6"/>
         <v>4.2857142857142856</v>
       </c>
-      <c r="P47" s="37">
+      <c r="P47" s="35">
         <f t="shared" si="6"/>
         <v>3.4285714285714284</v>
       </c>
-      <c r="Q47" s="37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="37">
+      <c r="Q47" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="35">
         <f t="shared" si="6"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="S47" s="37">
+      <c r="S47" s="35">
         <f t="shared" si="6"/>
         <v>4.8571428571428568</v>
       </c>
-      <c r="T47" s="37">
+      <c r="T47" s="35">
         <f t="shared" si="6"/>
         <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="48" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="32">
         <f t="shared" si="5"/>
         <v>23.571428571428573</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="32">
         <f t="shared" si="5"/>
         <v>58.142857142857146</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="32">
         <f t="shared" si="5"/>
         <v>58.142857142857146</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="32">
         <f t="shared" si="5"/>
         <v>18.857142857142858</v>
       </c>
-      <c r="I48" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="34">
+      <c r="I48" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="32">
         <f t="shared" si="5"/>
         <v>26.714285714285715</v>
       </c>
-      <c r="K48" s="34">
+      <c r="K48" s="32">
         <f t="shared" si="5"/>
         <v>26.714285714285715</v>
       </c>
-      <c r="L48" s="18"/>
-      <c r="M48" s="19" t="s">
+      <c r="L48" s="16"/>
+      <c r="M48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="34">
+      <c r="N48" s="32">
         <f t="shared" si="6"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="O48" s="34">
+      <c r="O48" s="32">
         <f t="shared" si="6"/>
         <v>5.2857142857142856</v>
       </c>
-      <c r="P48" s="34">
+      <c r="P48" s="32">
         <f t="shared" si="6"/>
         <v>5.2857142857142856</v>
       </c>
-      <c r="Q48" s="34">
+      <c r="Q48" s="32">
         <f t="shared" si="6"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="R48" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="34">
+      <c r="R48" s="32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="32">
         <f t="shared" si="6"/>
         <v>2.4285714285714284</v>
       </c>
-      <c r="T48" s="34">
+      <c r="T48" s="32">
         <f t="shared" si="6"/>
         <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="49" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="36">
         <f t="shared" si="5"/>
         <v>50.285714285714285</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="36">
         <f t="shared" si="5"/>
         <v>61.285714285714285</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="36">
         <f t="shared" si="5"/>
         <v>73.857142857142861</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H49" s="36">
         <f t="shared" si="5"/>
         <v>42.428571428571431</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="36">
         <f t="shared" si="5"/>
         <v>26.714285714285715</v>
       </c>
-      <c r="J49" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="38">
+      <c r="J49" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="36">
         <f t="shared" si="5"/>
         <v>34.571428571428577</v>
       </c>
-      <c r="L49" s="18"/>
-      <c r="M49" s="27" t="s">
+      <c r="L49" s="16"/>
+      <c r="M49" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49" s="36">
         <f t="shared" si="6"/>
         <v>4.5714285714285712</v>
       </c>
-      <c r="O49" s="38">
+      <c r="O49" s="36">
         <f t="shared" si="6"/>
         <v>5.5714285714285712</v>
       </c>
-      <c r="P49" s="38">
+      <c r="P49" s="36">
         <f t="shared" si="6"/>
         <v>6.7142857142857144</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49" s="36">
         <f t="shared" si="6"/>
         <v>3.8571428571428572</v>
       </c>
-      <c r="R49" s="38">
+      <c r="R49" s="36">
         <f t="shared" si="6"/>
         <v>2.4285714285714284</v>
       </c>
-      <c r="S49" s="38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="38">
+      <c r="S49" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="36">
         <f t="shared" si="6"/>
         <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="50" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="37">
         <f t="shared" si="5"/>
         <v>21.999999999999996</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="37">
         <f t="shared" si="5"/>
         <v>37.714285714285715</v>
       </c>
-      <c r="G50" s="39">
+      <c r="G50" s="37">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="H50" s="39">
+      <c r="H50" s="37">
         <f t="shared" si="5"/>
         <v>36.142857142857139</v>
       </c>
-      <c r="I50" s="39">
+      <c r="I50" s="37">
         <f t="shared" si="5"/>
         <v>21.999999999999996</v>
       </c>
-      <c r="J50" s="39">
+      <c r="J50" s="37">
         <f t="shared" si="5"/>
         <v>20.428571428571427</v>
       </c>
-      <c r="K50" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="18"/>
-      <c r="M50" s="29" t="s">
+      <c r="K50" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N50" s="39">
+      <c r="N50" s="37">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O50" s="39">
+      <c r="O50" s="37">
         <f t="shared" si="6"/>
         <v>3.4285714285714284</v>
       </c>
-      <c r="P50" s="39">
+      <c r="P50" s="37">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="Q50" s="39">
+      <c r="Q50" s="37">
         <f t="shared" si="6"/>
         <v>3.2857142857142856</v>
       </c>
-      <c r="R50" s="39">
+      <c r="R50" s="37">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="S50" s="39">
+      <c r="S50" s="37">
         <f t="shared" si="6"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="T50" s="39">
+      <c r="T50" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D51" s="31"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
     </row>
     <row r="52" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D52" s="31"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
     </row>
     <row r="53" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D53" s="31"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
     </row>
     <row r="54" spans="4:20" ht="88.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="D54" s="31"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="1" t="s">
+      <c r="D54" s="29"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="1" t="s">
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
     </row>
     <row r="55" spans="4:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H55" s="17" t="s">
+      <c r="H55" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="17" t="s">
+      <c r="I55" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="17" t="s">
+      <c r="J55" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="K55" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L55" s="18"/>
-      <c r="M55" s="16" t="s">
+      <c r="L55" s="16"/>
+      <c r="M55" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N55" s="17" t="s">
+      <c r="N55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O55" s="17" t="s">
+      <c r="O55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P55" s="17" t="s">
+      <c r="P55" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q55" s="17" t="s">
+      <c r="Q55" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R55" s="17" t="s">
+      <c r="R55" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S55" s="17" t="s">
+      <c r="S55" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T55" s="17" t="s">
+      <c r="T55" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="32">
         <f t="shared" ref="E56:K62" si="7">11*60*E7/30</f>
         <v>0</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="32">
         <f t="shared" si="7"/>
         <v>30.799999999999997</v>
       </c>
-      <c r="G56" s="34">
+      <c r="G56" s="32">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="H56" s="34">
+      <c r="H56" s="32">
         <f t="shared" si="7"/>
         <v>19.579999999999998</v>
       </c>
-      <c r="I56" s="34">
+      <c r="I56" s="32">
         <f t="shared" si="7"/>
         <v>57.2</v>
       </c>
-      <c r="J56" s="34">
+      <c r="J56" s="32">
         <f t="shared" si="7"/>
         <v>57.2</v>
       </c>
-      <c r="K56" s="34">
+      <c r="K56" s="32">
         <f t="shared" si="7"/>
         <v>57.2</v>
       </c>
-      <c r="L56" s="18"/>
-      <c r="M56" s="19" t="s">
+      <c r="L56" s="16"/>
+      <c r="M56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N56" s="34">
+      <c r="N56" s="32">
         <f t="shared" ref="N56:T62" si="8">E7*60/30</f>
         <v>0</v>
       </c>
-      <c r="O56" s="34">
+      <c r="O56" s="32">
         <f t="shared" si="8"/>
         <v>2.8</v>
       </c>
-      <c r="P56" s="34">
+      <c r="P56" s="32">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Q56" s="34">
+      <c r="Q56" s="32">
         <f t="shared" si="8"/>
         <v>1.78</v>
       </c>
-      <c r="R56" s="34">
+      <c r="R56" s="32">
         <f t="shared" si="8"/>
         <v>5.2</v>
       </c>
-      <c r="S56" s="34">
+      <c r="S56" s="32">
         <f t="shared" si="8"/>
         <v>5.2</v>
       </c>
-      <c r="T56" s="34">
+      <c r="T56" s="32">
         <f t="shared" si="8"/>
         <v>5.2</v>
       </c>
     </row>
     <row r="57" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="33">
         <f t="shared" si="7"/>
         <v>30.799999999999997</v>
       </c>
-      <c r="F57" s="35">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="35">
+      <c r="F57" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="33">
         <f t="shared" si="7"/>
         <v>63.8</v>
       </c>
-      <c r="H57" s="35">
+      <c r="H57" s="33">
         <f t="shared" si="7"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="I57" s="35">
+      <c r="I57" s="33">
         <f t="shared" si="7"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="J57" s="35">
+      <c r="J57" s="33">
         <f t="shared" si="7"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="K57" s="35">
+      <c r="K57" s="33">
         <f t="shared" si="7"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="L57" s="18"/>
-      <c r="M57" s="21" t="s">
+      <c r="L57" s="16"/>
+      <c r="M57" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N57" s="35">
+      <c r="N57" s="33">
         <f t="shared" si="8"/>
         <v>2.8</v>
       </c>
-      <c r="O57" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="35">
+      <c r="O57" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="33">
         <f t="shared" si="8"/>
         <v>5.8</v>
       </c>
-      <c r="Q57" s="35">
+      <c r="Q57" s="33">
         <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="R57" s="35">
+      <c r="R57" s="33">
         <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="S57" s="35">
+      <c r="S57" s="33">
         <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="T57" s="35">
+      <c r="T57" s="33">
         <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="58" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="34">
         <f t="shared" si="7"/>
         <v>30.799999999999997</v>
       </c>
-      <c r="F58" s="36">
+      <c r="F58" s="34">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="G58" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="36">
+      <c r="G58" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="34">
         <f t="shared" si="7"/>
         <v>41.8</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="34">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="34">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="K58" s="36">
+      <c r="K58" s="34">
         <f t="shared" si="7"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="L58" s="18"/>
-      <c r="M58" s="23" t="s">
+      <c r="L58" s="16"/>
+      <c r="M58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N58" s="36">
+      <c r="N58" s="34">
         <f t="shared" si="8"/>
         <v>2.8</v>
       </c>
-      <c r="O58" s="36">
+      <c r="O58" s="34">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="P58" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="36">
+      <c r="P58" s="34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="34">
         <f t="shared" si="8"/>
         <v>3.8</v>
       </c>
-      <c r="R58" s="36">
+      <c r="R58" s="34">
         <f t="shared" si="8"/>
         <v>7.6</v>
       </c>
-      <c r="S58" s="36">
+      <c r="S58" s="34">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="T58" s="36">
+      <c r="T58" s="34">
         <f t="shared" si="8"/>
         <v>6.6</v>
       </c>
     </row>
-    <row r="59" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D59" s="25" t="s">
+    <row r="59" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
+      <c r="D59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="35">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="35">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="G59" s="37">
+      <c r="G59" s="35">
         <f t="shared" si="7"/>
         <v>52.8</v>
       </c>
-      <c r="H59" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="37">
+      <c r="H59" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="35">
         <f t="shared" si="7"/>
         <v>26.4</v>
       </c>
-      <c r="J59" s="37">
+      <c r="J59" s="35">
         <f t="shared" si="7"/>
         <v>74.8</v>
       </c>
-      <c r="K59" s="37">
+      <c r="K59" s="35">
         <f t="shared" si="7"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="L59" s="18"/>
-      <c r="M59" s="25" t="s">
+      <c r="L59" s="16"/>
+      <c r="M59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="37">
+      <c r="N59" s="35">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="O59" s="37">
+      <c r="O59" s="35">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="P59" s="37">
+      <c r="P59" s="35">
         <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
-      <c r="Q59" s="37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="37">
+      <c r="Q59" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="35">
         <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
-      <c r="S59" s="37">
+      <c r="S59" s="35">
         <f t="shared" si="8"/>
         <v>6.8</v>
       </c>
-      <c r="T59" s="37">
+      <c r="T59" s="35">
         <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="60" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="32">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="32">
         <f t="shared" si="7"/>
         <v>81.400000000000006</v>
       </c>
-      <c r="G60" s="34">
+      <c r="G60" s="32">
         <f t="shared" si="7"/>
         <v>81.400000000000006</v>
       </c>
-      <c r="H60" s="34">
+      <c r="H60" s="32">
         <f t="shared" si="7"/>
         <v>26.4</v>
       </c>
-      <c r="I60" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="34">
+      <c r="I60" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="32">
         <f t="shared" si="7"/>
         <v>37.4</v>
       </c>
-      <c r="K60" s="34">
+      <c r="K60" s="32">
         <f t="shared" si="7"/>
         <v>37.4</v>
       </c>
-      <c r="L60" s="18"/>
-      <c r="M60" s="19" t="s">
+      <c r="L60" s="16"/>
+      <c r="M60" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N60" s="34">
+      <c r="N60" s="32">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="O60" s="34">
+      <c r="O60" s="32">
         <f t="shared" si="8"/>
         <v>7.4</v>
       </c>
-      <c r="P60" s="34">
+      <c r="P60" s="32">
         <f t="shared" si="8"/>
         <v>7.4</v>
       </c>
-      <c r="Q60" s="34">
+      <c r="Q60" s="32">
         <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
-      <c r="R60" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="34">
+      <c r="R60" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="32">
         <f t="shared" si="8"/>
         <v>3.4</v>
       </c>
-      <c r="T60" s="34">
+      <c r="T60" s="32">
         <f t="shared" si="8"/>
         <v>3.4</v>
       </c>
     </row>
     <row r="61" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="36">
         <f t="shared" si="7"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="36">
         <f t="shared" si="7"/>
         <v>85.8</v>
       </c>
-      <c r="G61" s="38">
+      <c r="G61" s="36">
         <f t="shared" si="7"/>
         <v>103.4</v>
       </c>
-      <c r="H61" s="38">
+      <c r="H61" s="36">
         <f t="shared" si="7"/>
         <v>59.400000000000006</v>
       </c>
-      <c r="I61" s="38">
+      <c r="I61" s="36">
         <f t="shared" si="7"/>
         <v>37.4</v>
       </c>
-      <c r="J61" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="38">
+      <c r="J61" s="36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="36">
         <f t="shared" si="7"/>
         <v>48.400000000000006</v>
       </c>
-      <c r="L61" s="18"/>
-      <c r="M61" s="27" t="s">
+      <c r="L61" s="16"/>
+      <c r="M61" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="38">
+      <c r="N61" s="36">
         <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
-      <c r="O61" s="38">
+      <c r="O61" s="36">
         <f t="shared" si="8"/>
         <v>7.8</v>
       </c>
-      <c r="P61" s="38">
+      <c r="P61" s="36">
         <f t="shared" si="8"/>
         <v>9.4</v>
       </c>
-      <c r="Q61" s="38">
+      <c r="Q61" s="36">
         <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
-      <c r="R61" s="38">
+      <c r="R61" s="36">
         <f t="shared" si="8"/>
         <v>3.4</v>
       </c>
-      <c r="S61" s="38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="38">
+      <c r="S61" s="36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="36">
         <f t="shared" si="8"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="62" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
-      <c r="D62" s="29" t="s">
+    <row r="62" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
+      <c r="D62" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="37">
         <f t="shared" si="7"/>
         <v>30.799999999999997</v>
       </c>
-      <c r="F62" s="39">
+      <c r="F62" s="37">
         <f t="shared" si="7"/>
         <v>52.8</v>
       </c>
-      <c r="G62" s="39">
+      <c r="G62" s="37">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="H62" s="39">
+      <c r="H62" s="37">
         <f t="shared" si="7"/>
         <v>50.599999999999994</v>
       </c>
-      <c r="I62" s="39">
+      <c r="I62" s="37">
         <f t="shared" si="7"/>
         <v>30.799999999999997</v>
       </c>
-      <c r="J62" s="39">
+      <c r="J62" s="37">
         <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
-      <c r="K62" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="18"/>
-      <c r="M62" s="29" t="s">
+      <c r="K62" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N62" s="39">
+      <c r="N62" s="37">
         <f t="shared" si="8"/>
         <v>2.8</v>
       </c>
-      <c r="O62" s="39">
+      <c r="O62" s="37">
         <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
-      <c r="P62" s="39">
+      <c r="P62" s="37">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="Q62" s="39">
+      <c r="Q62" s="37">
         <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="R62" s="39">
+      <c r="R62" s="37">
         <f t="shared" si="8"/>
         <v>2.8</v>
       </c>
-      <c r="S62" s="39">
+      <c r="S62" s="37">
         <f t="shared" si="8"/>
         <v>2.6</v>
       </c>
-      <c r="T62" s="39">
+      <c r="T62" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E91" s="6">
+      <c r="E91" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E92" s="6">
+      <c r="E92" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E93" s="6">
+      <c r="E93" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E94" s="6">
+      <c r="E94" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E95" s="6">
+      <c r="E95" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E96" s="6">
+      <c r="E96" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E97" s="6">
+      <c r="E97" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E98" s="6">
+      <c r="E98" s="4">
         <v>0.89</v>
       </c>
     </row>
     <row r="99" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E99" s="6">
+      <c r="E99" s="4">
         <v>1.2</v>
       </c>
     </row>
     <row r="100" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E100" s="6">
+      <c r="E100" s="4">
         <v>1.2</v>
       </c>
     </row>
     <row r="101" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E101" s="6">
+      <c r="E101" s="4">
         <v>1.3</v>
       </c>
     </row>
     <row r="102" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E102" s="6">
+      <c r="E102" s="4">
         <v>1.4</v>
       </c>
     </row>
     <row r="103" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E103" s="6">
+      <c r="E103" s="4">
         <v>1.4</v>
       </c>
     </row>
     <row r="104" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E104" s="6">
+      <c r="E104" s="4">
         <v>1.4</v>
       </c>
     </row>
     <row r="105" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E105" s="6">
+      <c r="E105" s="4">
         <v>1.4</v>
       </c>
     </row>
     <row r="106" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E106" s="6">
+      <c r="E106" s="4">
         <v>1.4</v>
       </c>
     </row>
     <row r="107" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E107" s="6">
+      <c r="E107" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="108" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E108" s="6">
+      <c r="E108" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="109" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E109" s="6">
+      <c r="E109" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="110" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E110" s="6">
+      <c r="E110" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="111" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E111" s="6">
+      <c r="E111" s="4">
         <v>1.7</v>
       </c>
     </row>
     <row r="112" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E112" s="6">
+      <c r="E112" s="4">
         <v>1.7</v>
       </c>
     </row>
     <row r="113" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E113" s="6">
+      <c r="E113" s="4">
         <v>1.7</v>
       </c>
     </row>
     <row r="114" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E114" s="6">
+      <c r="E114" s="4">
         <v>1.9</v>
       </c>
     </row>
     <row r="115" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E115" s="6">
+      <c r="E115" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="116" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E116" s="6">
+      <c r="E116" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="117" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E117" s="6">
+      <c r="E117" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="118" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E118" s="6">
+      <c r="E118" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="119" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E119" s="6">
+      <c r="E119" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="120" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E120" s="6">
+      <c r="E120" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="121" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E121" s="6">
+      <c r="E121" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="122" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E122" s="6">
+      <c r="E122" s="4">
         <v>2.4</v>
       </c>
     </row>
     <row r="123" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E123" s="6">
+      <c r="E123" s="4">
         <v>2.4</v>
       </c>
     </row>
     <row r="124" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E124" s="6">
+      <c r="E124" s="4">
         <v>2.6</v>
       </c>
     </row>
     <row r="125" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E125" s="6">
+      <c r="E125" s="4">
         <v>2.6</v>
       </c>
     </row>
     <row r="126" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E126" s="6">
+      <c r="E126" s="4">
         <v>2.6</v>
       </c>
     </row>
     <row r="127" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E127" s="6">
+      <c r="E127" s="4">
         <v>2.7</v>
       </c>
     </row>
     <row r="128" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E128" s="6">
+      <c r="E128" s="4">
         <v>2.9</v>
       </c>
     </row>
     <row r="129" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E129" s="6">
+      <c r="E129" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E130" s="6">
+      <c r="E130" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E131" s="6">
+      <c r="E131" s="4">
         <v>3.2</v>
       </c>
     </row>
     <row r="132" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E132" s="6">
+      <c r="E132" s="4">
         <v>3.3</v>
       </c>
     </row>
     <row r="133" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E133" s="6">
+      <c r="E133" s="4">
         <v>3.4</v>
       </c>
     </row>
     <row r="134" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E134" s="6">
+      <c r="E134" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="135" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E135" s="6">
+      <c r="E135" s="4">
         <v>3.7</v>
       </c>
     </row>
     <row r="136" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E136" s="6">
+      <c r="E136" s="4">
         <v>3.7</v>
       </c>
     </row>
     <row r="137" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E137" s="6">
+      <c r="E137" s="4">
         <v>3.8</v>
       </c>
     </row>
     <row r="138" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E138" s="6">
+      <c r="E138" s="4">
         <v>3.9</v>
       </c>
     </row>
     <row r="139" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="E139" s="6">
+      <c r="E139" s="4">
         <v>4.7</v>
       </c>
     </row>

--- a/1спринт/2часть/Филипчик_Таблицы_часть2.xlsx
+++ b/1спринт/2часть/Филипчик_Таблицы_часть2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\1спринт\2часть\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\Y.Routes\1спринт\2часть\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87D17E-BC0A-44E1-934F-10C26D7FB4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E910A8-37B9-4819-9F0A-21CD59286A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1120,35 +1120,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:BL139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D53" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="1"/>
-    <col min="4" max="4" width="34.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="36.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="1"/>
-    <col min="13" max="14" width="29.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="36.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1"/>
+    <col min="4" max="4" width="34.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1"/>
+    <col min="13" max="14" width="29.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="36.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="26" style="1" customWidth="1"/>
-    <col min="17" max="17" width="35.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="35.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="31.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="35.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" style="1" customWidth="1"/>
     <col min="20" max="20" width="36" style="1" customWidth="1"/>
-    <col min="21" max="64" width="17.5546875" style="1"/>
+    <col min="21" max="64" width="17.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="39" t="s">
@@ -1160,7 +1160,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1170,7 +1170,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:17" ht="68.400000000000006" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="69.75" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="61.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="30.75" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="45.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
       <c r="D13" s="3" t="s">
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="40.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:17" ht="73.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F16" s="38" t="s">
         <v>24</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
     </row>
-    <row r="17" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:20" ht="105" x14ac:dyDescent="0.4">
       <c r="D17" s="14" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="19" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D19" s="19" t="s">
         <v>12</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="20" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D20" s="21" t="s">
         <v>14</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="21" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="D21" s="23" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="22" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D22" s="17" t="s">
         <v>18</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="23" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D23" s="25" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="24" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="D24" s="27" t="s">
         <v>21</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D25" s="29"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1970,7 +1970,7 @@
       <c r="S25" s="31"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" spans="4:20" ht="25.2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:20" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="D26" s="29"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -1989,7 +1989,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" spans="4:20" ht="25.2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:20" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="D27" s="29"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -2008,7 +2008,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D28" s="29"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -2027,7 +2027,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="4:20" ht="65.7" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="4:20" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D29" s="29"/>
       <c r="E29" s="16"/>
       <c r="F29" s="38" t="s">
@@ -2050,7 +2050,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:20" ht="105" x14ac:dyDescent="0.4">
       <c r="D30" s="14" t="s">
         <v>1</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>4.4571428571428573</v>
       </c>
     </row>
-    <row r="32" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D32" s="19" t="s">
         <v>12</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>3.9428571428571431</v>
       </c>
     </row>
-    <row r="33" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D33" s="21" t="s">
         <v>14</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>5.6571428571428575</v>
       </c>
     </row>
-    <row r="34" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="D34" s="23" t="s">
         <v>16</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>3.9428571428571431</v>
       </c>
     </row>
-    <row r="35" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D35" s="17" t="s">
         <v>18</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2.9142857142857141</v>
       </c>
     </row>
-    <row r="36" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D36" s="25" t="s">
         <v>20</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>3.7714285714285714</v>
       </c>
     </row>
-    <row r="37" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="D37" s="27" t="s">
         <v>21</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -2575,7 +2575,7 @@
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="4:20" ht="25.2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:20" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="D39" s="29"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
@@ -2594,7 +2594,7 @@
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="4:20" ht="25.2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:20" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="D40" s="29"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -2613,7 +2613,7 @@
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D41" s="29"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -2632,7 +2632,7 @@
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="4:20" ht="95.7" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="4:20" ht="95.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D42" s="29"/>
       <c r="E42" s="16"/>
       <c r="F42" s="38" t="s">
@@ -2655,7 +2655,7 @@
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:20" ht="105" x14ac:dyDescent="0.4">
       <c r="D43" s="14" t="s">
         <v>1</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="45" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D45" s="19" t="s">
         <v>12</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>3.2857142857142856</v>
       </c>
     </row>
-    <row r="46" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D46" s="21" t="s">
         <v>14</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>4.7142857142857144</v>
       </c>
     </row>
-    <row r="47" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="D47" s="23" t="s">
         <v>16</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>3.2857142857142856</v>
       </c>
     </row>
-    <row r="48" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D48" s="17" t="s">
         <v>18</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>2.4285714285714284</v>
       </c>
     </row>
-    <row r="49" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D49" s="25" t="s">
         <v>20</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>3.1428571428571428</v>
       </c>
     </row>
-    <row r="50" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="D50" s="27" t="s">
         <v>21</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D51" s="29"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -3180,7 +3180,7 @@
       <c r="S51" s="16"/>
       <c r="T51" s="16"/>
     </row>
-    <row r="52" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D52" s="29"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -3199,7 +3199,7 @@
       <c r="S52" s="16"/>
       <c r="T52" s="16"/>
     </row>
-    <row r="53" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D53" s="29"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -3218,7 +3218,7 @@
       <c r="S53" s="16"/>
       <c r="T53" s="16"/>
     </row>
-    <row r="54" spans="4:20" ht="88.2" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="4:20" ht="88.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D54" s="29"/>
       <c r="E54" s="16"/>
       <c r="F54" s="38" t="s">
@@ -3241,7 +3241,7 @@
       <c r="S54" s="16"/>
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="4:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D55" s="14" t="s">
         <v>1</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="4:20" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="57" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D57" s="19" t="s">
         <v>12</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D58" s="21" t="s">
         <v>14</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="59" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="D59" s="23" t="s">
         <v>16</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="60" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D60" s="17" t="s">
         <v>18</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="61" spans="4:20" ht="50.4" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:20" ht="52.5" x14ac:dyDescent="0.4">
       <c r="D61" s="25" t="s">
         <v>20</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="62" spans="4:20" ht="75.599999999999994" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="D62" s="27" t="s">
         <v>21</v>
       </c>
@@ -3747,247 +3747,247 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E91" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E92" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E93" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E94" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E95" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E96" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E97" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E98" s="4">
         <v>0.89</v>
       </c>
     </row>
-    <row r="99" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E99" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E100" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="101" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E101" s="4">
         <v>1.3</v>
       </c>
     </row>
-    <row r="102" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E102" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="103" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E103" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="104" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E104" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="105" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E105" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="106" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E106" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="107" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E107" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="108" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E108" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="109" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E109" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="110" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E110" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="111" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="111" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E111" s="4">
         <v>1.7</v>
       </c>
     </row>
-    <row r="112" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="112" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E112" s="4">
         <v>1.7</v>
       </c>
     </row>
-    <row r="113" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E113" s="4">
         <v>1.7</v>
       </c>
     </row>
-    <row r="114" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E114" s="4">
         <v>1.9</v>
       </c>
     </row>
-    <row r="115" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E115" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="116" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E116" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="117" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E117" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="118" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E118" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="119" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E119" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="120" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E120" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="121" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E121" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="122" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E122" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="123" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E123" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="124" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E124" s="4">
         <v>2.6</v>
       </c>
     </row>
-    <row r="125" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E125" s="4">
         <v>2.6</v>
       </c>
     </row>
-    <row r="126" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E126" s="4">
         <v>2.6</v>
       </c>
     </row>
-    <row r="127" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E127" s="4">
         <v>2.7</v>
       </c>
     </row>
-    <row r="128" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E128" s="4">
         <v>2.9</v>
       </c>
     </row>
-    <row r="129" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="129" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E129" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E130" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="131" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E131" s="4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="132" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="132" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E132" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="133" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E133" s="4">
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="134" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E134" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="135" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="135" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E135" s="4">
         <v>3.7</v>
       </c>
     </row>
-    <row r="136" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="136" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E136" s="4">
         <v>3.7</v>
       </c>
     </row>
-    <row r="137" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="137" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E137" s="4">
         <v>3.8</v>
       </c>
     </row>
-    <row r="138" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="138" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E138" s="4">
         <v>3.9</v>
       </c>
     </row>
-    <row r="139" spans="5:5" ht="22.8" x14ac:dyDescent="0.35">
+    <row r="139" spans="5:5" ht="23.25" x14ac:dyDescent="0.3">
       <c r="E139" s="4">
         <v>4.7</v>
       </c>

--- a/1спринт/2часть/Филипчик_Таблицы_часть2.xlsx
+++ b/1спринт/2часть/Филипчик_Таблицы_часть2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\Y.Routes\1спринт\2часть\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E910A8-37B9-4819-9F0A-21CD59286A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD74F996-ADC5-4C66-988C-70451D96D02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -101,13 +101,31 @@
     <t>Формула для стоимости:</t>
   </si>
   <si>
+    <t>Стоимость поездки на такси между адресами в период с 22.00-8.00, рубли</t>
+  </si>
+  <si>
+    <t>Время поездки на такси между адресами в период с 22.01-8.00, минуты</t>
+  </si>
+  <si>
+    <t>Стоимость поездки на такси между адресами в период с 8.01-12.00, рубли</t>
+  </si>
+  <si>
+    <t>Время поездки на такси между адресами в период с 08.01-12.00, минуты</t>
+  </si>
+  <si>
+    <t>Стоимость поездки на такси между адресами в период с 12.01-18.00, рубли</t>
+  </si>
+  <si>
+    <t>Время поездки на такси между адресами в период с 12.01-18.00, минуты</t>
+  </si>
+  <si>
+    <t>Стоимость поездки на такси между адресами в период с 18.00-22.00, рубли</t>
+  </si>
+  <si>
+    <t>Время поездки на такси между адресами в период с 18.01-22.00, минуты</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="24"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t>P</t>
     </r>
     <r>
@@ -158,30 +176,6 @@
       </rPr>
       <t>такси</t>
     </r>
-  </si>
-  <si>
-    <t>Стоимость поездки на такси между адресами в период с 22.00-8.00, рубли</t>
-  </si>
-  <si>
-    <t>Время поездки на такси между адресами в период с 22.01-8.00, минуты</t>
-  </si>
-  <si>
-    <t>Стоимость поездки на такси между адресами в период с 8.01-12.00, рубли</t>
-  </si>
-  <si>
-    <t>Время поездки на такси между адресами в период с 08.01-12.00, минуты</t>
-  </si>
-  <si>
-    <t>Стоимость поездки на такси между адресами в период с 12.01-18.00, рубли</t>
-  </si>
-  <si>
-    <t>Время поездки на такси между адресами в период с 12.01-18.00, минуты</t>
-  </si>
-  <si>
-    <t>Стоимость поездки на такси между адресами в период с 18.00-22.00, рубли</t>
-  </si>
-  <si>
-    <t>Время поездки на такси между адресами в период с 18.01-22.00, минуты</t>
   </si>
 </sst>
 </file>
@@ -287,7 +281,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +340,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6D6D"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -599,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +719,9 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1120,13 +1123,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:BL139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="60" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="1"/>
     <col min="4" max="4" width="34.7109375" style="2" customWidth="1"/>
@@ -1210,16 +1213,16 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="40">
         <v>1.4</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="40">
         <v>1.5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="40">
         <v>0.89</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="40">
         <v>2.6</v>
       </c>
       <c r="J7" s="4">
@@ -1243,13 +1246,13 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="40">
         <v>2.9</v>
       </c>
       <c r="H8" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="40">
         <v>2.2999999999999998</v>
       </c>
       <c r="J8" s="4">
@@ -1278,16 +1281,16 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="40">
         <v>1.9</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="40">
         <v>3.8</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="40">
         <v>3</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="40">
         <v>3.3</v>
       </c>
     </row>
@@ -1307,16 +1310,16 @@
       <c r="F10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="40">
         <v>2.4</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="40">
         <v>1.2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="40">
         <v>3.4</v>
       </c>
       <c r="K10" s="4">
@@ -1336,7 +1339,7 @@
       <c r="E11" s="4">
         <v>1.5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="40">
         <v>3.7</v>
       </c>
       <c r="G11" s="4">
@@ -1348,7 +1351,7 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="40">
         <v>1.7</v>
       </c>
       <c r="K11" s="4">
@@ -1365,13 +1368,13 @@
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="40">
         <v>3.2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="40">
         <v>3.9</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="40">
         <v>4.7</v>
       </c>
       <c r="H12" s="4">
@@ -1399,7 +1402,7 @@
       <c r="F13" s="4">
         <v>2.4</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="40">
         <v>3.5</v>
       </c>
       <c r="H13" s="4">
@@ -1423,13 +1426,13 @@
     </row>
     <row r="15" spans="1:17" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F16" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
@@ -1440,7 +1443,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
       <c r="O16" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
@@ -2031,7 +2034,7 @@
       <c r="D29" s="29"/>
       <c r="E29" s="16"/>
       <c r="F29" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
@@ -2042,7 +2045,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="12"/>
       <c r="O29" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P29" s="38"/>
       <c r="Q29" s="38"/>
@@ -2636,7 +2639,7 @@
       <c r="D42" s="29"/>
       <c r="E42" s="16"/>
       <c r="F42" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
@@ -2647,7 +2650,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="12"/>
       <c r="O42" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P42" s="38"/>
       <c r="Q42" s="38"/>
@@ -3222,7 +3225,7 @@
       <c r="D54" s="29"/>
       <c r="E54" s="16"/>
       <c r="F54" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
@@ -3233,7 +3236,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="12"/>
       <c r="O54" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P54" s="38"/>
       <c r="Q54" s="38"/>
